--- a/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/WarehouseImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/WarehouseImportTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Code</t>
   </si>
@@ -44,9 +44,6 @@
     <t>District</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>Thu Duc</t>
-  </si>
-  <si>
-    <t>Active</t>
   </si>
   <si>
     <t>WH02</t>
@@ -415,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,7 +426,7 @@
     <col min="7" max="7" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -446,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -454,34 +448,28 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
